--- a/스터디 벌금_4월.xlsx
+++ b/스터디 벌금_4월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225103DE-C9AE-0F43-9567-E74B89CAB594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CE4E4-B933-1C48-85B7-49F8C8181961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>4월 2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 3일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,6 +287,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,12 +309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,32 +651,32 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="12">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="14">
         <f>SUM(B6:F99)</f>
         <v>600</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
@@ -691,8 +695,8 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f>SUM(B6:G99)</f>
-        <v>600</v>
+        <f>SUM(E6:E99)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <f>SUM(F6:F99)</f>
@@ -768,12 +772,24 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
@@ -881,14 +897,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:F2"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/스터디 벌금_4월.xlsx
+++ b/스터디 벌금_4월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CE4E4-B933-1C48-85B7-49F8C8181961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03A7D59-C004-2B47-A06F-739155FE1072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>4월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 4일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,40 +279,40 @@
     <xf numFmtId="41" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,64 +656,64 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="14">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="12">
         <f>SUM(B6:F99)</f>
         <v>600</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="16">
         <f>SUM(B6:B99)</f>
         <v>600</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="16">
         <f>SUM(C6:C99)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="16">
         <f>SUM(D6:D99)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <f>SUM(E6:E99)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="16">
         <f>SUM(F6:F99)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -792,12 +796,24 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>

--- a/스터디 벌금_4월.xlsx
+++ b/스터디 벌금_4월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03A7D59-C004-2B47-A06F-739155FE1072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCFA25-BC9B-F04B-8842-26997074A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>4월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 9일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +668,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -670,7 +682,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="12">
         <f>SUM(B6:F99)</f>
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="F1" s="13"/>
     </row>
@@ -688,7 +700,7 @@
       </c>
       <c r="B3" s="16">
         <f>SUM(B6:B99)</f>
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="C3" s="16">
         <f>SUM(C6:C99)</f>
@@ -816,28 +828,64 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>

--- a/스터디 벌금_4월.xlsx
+++ b/스터디 벌금_4월.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rach/Documents/GitHub/unp_study_penalty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCFA25-BC9B-F04B-8842-26997074A0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843793AF-FAC9-6140-A781-D8633EE91BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{24509ADD-88A1-5743-8356-1991D6A2A3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>김서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>4월 9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 15일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +684,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -682,7 +698,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="12">
         <f>SUM(B6:F99)</f>
-        <v>2600</v>
+        <v>5600</v>
       </c>
       <c r="F1" s="13"/>
     </row>
@@ -700,7 +716,7 @@
       </c>
       <c r="B3" s="16">
         <f>SUM(B6:B99)</f>
-        <v>2600</v>
+        <v>5600</v>
       </c>
       <c r="C3" s="16">
         <f>SUM(C6:C99)</f>
@@ -888,36 +904,84 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
